--- a/fieldData/school_3F.xlsx
+++ b/fieldData/school_3F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C821EAC-2CDE-4EE0-A6F6-2E5593606A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B05279-306E-46E3-B71C-C66955E613CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,98 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -203,6 +294,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -525,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D650B-EB6E-484D-95A2-87377CCCE523}">
   <dimension ref="A1:CW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CN25" sqref="CN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -847,31 +959,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -880,31 +992,31 @@
         <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>3</v>
@@ -913,31 +1025,31 @@
         <v>3</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="1">
         <v>3</v>
@@ -946,31 +1058,31 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1">
         <v>3</v>
@@ -979,31 +1091,31 @@
         <v>3</v>
       </c>
       <c r="AU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>3</v>
@@ -1012,31 +1124,31 @@
         <v>3</v>
       </c>
       <c r="BF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="1">
         <v>3</v>
@@ -1045,31 +1157,31 @@
         <v>3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" s="1">
         <v>3</v>
@@ -1078,31 +1190,31 @@
         <v>3</v>
       </c>
       <c r="CB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2" s="1">
         <v>3</v>
@@ -1111,31 +1223,31 @@
         <v>3</v>
       </c>
       <c r="CM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2" s="1">
         <v>3</v>
@@ -1152,31 +1264,31 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -1185,31 +1297,31 @@
         <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>3</v>
@@ -1218,31 +1330,31 @@
         <v>3</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
         <v>3</v>
@@ -1251,31 +1363,31 @@
         <v>3</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="1">
         <v>3</v>
@@ -1284,31 +1396,31 @@
         <v>3</v>
       </c>
       <c r="AU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>3</v>
@@ -1317,31 +1429,31 @@
         <v>3</v>
       </c>
       <c r="BF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="1">
         <v>3</v>
@@ -1350,31 +1462,31 @@
         <v>3</v>
       </c>
       <c r="BQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" s="1">
         <v>3</v>
@@ -1383,31 +1495,31 @@
         <v>3</v>
       </c>
       <c r="CB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3" s="1">
         <v>3</v>
@@ -1416,31 +1528,31 @@
         <v>3</v>
       </c>
       <c r="CM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV3" s="1">
         <v>3</v>
@@ -1457,31 +1569,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
@@ -1490,31 +1602,31 @@
         <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>3</v>
@@ -1523,31 +1635,31 @@
         <v>3</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
         <v>3</v>
@@ -1556,31 +1668,31 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="1">
         <v>3</v>
@@ -1589,31 +1701,31 @@
         <v>3</v>
       </c>
       <c r="AU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>3</v>
@@ -1622,31 +1734,31 @@
         <v>3</v>
       </c>
       <c r="BF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="1">
         <v>3</v>
@@ -1655,31 +1767,31 @@
         <v>3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" s="1">
         <v>3</v>
@@ -1688,31 +1800,31 @@
         <v>3</v>
       </c>
       <c r="CB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4" s="1">
         <v>3</v>
@@ -1721,31 +1833,31 @@
         <v>3</v>
       </c>
       <c r="CM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV4" s="1">
         <v>3</v>
@@ -1762,31 +1874,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
@@ -1795,31 +1907,31 @@
         <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>3</v>
@@ -1828,31 +1940,31 @@
         <v>3</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
         <v>3</v>
@@ -1861,31 +1973,31 @@
         <v>3</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="1">
         <v>3</v>
@@ -1894,31 +2006,31 @@
         <v>3</v>
       </c>
       <c r="AU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>3</v>
@@ -1927,31 +2039,31 @@
         <v>3</v>
       </c>
       <c r="BF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="1">
         <v>3</v>
@@ -1960,31 +2072,31 @@
         <v>3</v>
       </c>
       <c r="BQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ5" s="1">
         <v>3</v>
@@ -1993,31 +2105,31 @@
         <v>3</v>
       </c>
       <c r="CB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK5" s="1">
         <v>3</v>
@@ -2026,31 +2138,31 @@
         <v>3</v>
       </c>
       <c r="CM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV5" s="1">
         <v>3</v>
@@ -2067,31 +2179,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -2100,31 +2212,31 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
@@ -2133,31 +2245,31 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1">
         <v>3</v>
@@ -2166,31 +2278,31 @@
         <v>3</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1">
         <v>3</v>
@@ -2199,31 +2311,31 @@
         <v>3</v>
       </c>
       <c r="AU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>3</v>
@@ -2232,31 +2344,31 @@
         <v>3</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="1">
         <v>3</v>
@@ -2265,31 +2377,31 @@
         <v>3</v>
       </c>
       <c r="BQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="1">
         <v>3</v>
@@ -2298,31 +2410,31 @@
         <v>3</v>
       </c>
       <c r="CB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK6" s="1">
         <v>3</v>
@@ -2331,31 +2443,31 @@
         <v>3</v>
       </c>
       <c r="CM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV6" s="1">
         <v>3</v>
@@ -2372,31 +2484,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>3</v>
@@ -2405,31 +2517,31 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>3</v>
@@ -2438,31 +2550,31 @@
         <v>3</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
         <v>3</v>
@@ -2471,31 +2583,31 @@
         <v>3</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
         <v>3</v>
@@ -2504,31 +2616,31 @@
         <v>3</v>
       </c>
       <c r="AU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>3</v>
@@ -2537,31 +2649,31 @@
         <v>3</v>
       </c>
       <c r="BF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="1">
         <v>3</v>
@@ -2570,31 +2682,31 @@
         <v>3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="1">
         <v>3</v>
@@ -2603,31 +2715,31 @@
         <v>3</v>
       </c>
       <c r="CB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK7" s="1">
         <v>3</v>
@@ -2636,31 +2748,31 @@
         <v>3</v>
       </c>
       <c r="CM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV7" s="1">
         <v>3</v>
@@ -2677,31 +2789,31 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -2710,31 +2822,31 @@
         <v>3</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>3</v>
@@ -2743,31 +2855,31 @@
         <v>3</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <v>3</v>
@@ -2776,31 +2888,31 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="1">
         <v>3</v>
@@ -2809,31 +2921,31 @@
         <v>3</v>
       </c>
       <c r="AU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>3</v>
@@ -2842,31 +2954,31 @@
         <v>3</v>
       </c>
       <c r="BF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="1">
         <v>3</v>
@@ -2875,31 +2987,31 @@
         <v>3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="1">
         <v>3</v>
@@ -2908,31 +3020,31 @@
         <v>3</v>
       </c>
       <c r="CB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK8" s="1">
         <v>3</v>
@@ -2941,31 +3053,31 @@
         <v>3</v>
       </c>
       <c r="CM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV8" s="1">
         <v>3</v>
@@ -2982,10 +3094,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3003,10 +3115,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -3015,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
         <v>3</v>
@@ -3036,10 +3148,10 @@
         <v>3</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9" s="1">
         <v>3</v>
@@ -3048,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1">
         <v>3</v>
@@ -3069,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="1">
         <v>3</v>
@@ -3081,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="1">
         <v>3</v>
@@ -3102,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS9" s="1">
         <v>3</v>
@@ -3114,10 +3226,10 @@
         <v>3</v>
       </c>
       <c r="AU9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="1">
         <v>3</v>
@@ -3135,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="BB9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD9" s="1">
         <v>3</v>
@@ -3147,10 +3259,10 @@
         <v>3</v>
       </c>
       <c r="BF9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH9" s="1">
         <v>3</v>
@@ -3168,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="BM9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO9" s="1">
         <v>3</v>
@@ -3180,10 +3292,10 @@
         <v>3</v>
       </c>
       <c r="BQ9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS9" s="1">
         <v>3</v>
@@ -3201,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="BX9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ9" s="1">
         <v>3</v>
@@ -3213,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="CB9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CC9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD9" s="1">
         <v>3</v>
@@ -3234,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="CI9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK9" s="1">
         <v>3</v>
@@ -3246,10 +3358,10 @@
         <v>3</v>
       </c>
       <c r="CM9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CN9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO9" s="1">
         <v>3</v>
@@ -3267,10 +3379,10 @@
         <v>3</v>
       </c>
       <c r="CT9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV9" s="1">
         <v>3</v>
@@ -4208,16 +4320,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -4349,13 +4461,13 @@
         <v>3</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1">
         <v>3</v>
@@ -4436,10 +4548,10 @@
         <v>3</v>
       </c>
       <c r="CC13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE13" s="1">
         <v>3</v>
@@ -4475,16 +4587,16 @@
         <v>1</v>
       </c>
       <c r="CP13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CQ13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CR13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CS13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT13" s="1">
         <v>3</v>
@@ -4504,13 +4616,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4537,100 +4649,100 @@
         <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS14" s="1">
         <v>3</v>
@@ -4648,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AX14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="1">
         <v>1</v>
@@ -4660,58 +4772,58 @@
         <v>1</v>
       </c>
       <c r="BB14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT14" s="1">
         <v>1</v>
@@ -4753,19 +4865,19 @@
         <v>1</v>
       </c>
       <c r="CG14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL14" s="1">
         <v>3</v>
@@ -4792,13 +4904,13 @@
         <v>1</v>
       </c>
       <c r="CT14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW14" s="1">
         <v>3</v>
@@ -4809,25 +4921,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -4842,100 +4954,100 @@
         <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS15" s="1">
         <v>3</v>
@@ -4953,70 +5065,70 @@
         <v>1</v>
       </c>
       <c r="AX15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB15" s="1">
         <v>3</v>
       </c>
       <c r="BC15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT15" s="1">
         <v>1</v>
@@ -5058,19 +5170,19 @@
         <v>1</v>
       </c>
       <c r="CG15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL15" s="1">
         <v>3</v>
@@ -5085,25 +5197,25 @@
         <v>1</v>
       </c>
       <c r="CP15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW15" s="1">
         <v>3</v>
@@ -5114,25 +5226,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -5147,100 +5259,100 @@
         <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS16" s="1">
         <v>3</v>
@@ -5258,70 +5370,70 @@
         <v>1</v>
       </c>
       <c r="AX16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB16" s="1">
         <v>3</v>
       </c>
       <c r="BC16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT16" s="1">
         <v>1</v>
@@ -5363,19 +5475,19 @@
         <v>1</v>
       </c>
       <c r="CG16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL16" s="1">
         <v>3</v>
@@ -5390,25 +5502,25 @@
         <v>1</v>
       </c>
       <c r="CP16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW16" s="1">
         <v>3</v>
@@ -5419,25 +5531,25 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -5452,100 +5564,100 @@
         <v>3</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS17" s="1">
         <v>3</v>
@@ -5563,70 +5675,70 @@
         <v>1</v>
       </c>
       <c r="AX17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB17" s="1">
         <v>3</v>
       </c>
       <c r="BC17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT17" s="1">
         <v>1</v>
@@ -5668,19 +5780,19 @@
         <v>1</v>
       </c>
       <c r="CG17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL17" s="1">
         <v>3</v>
@@ -5695,25 +5807,25 @@
         <v>1</v>
       </c>
       <c r="CP17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW17" s="1">
         <v>3</v>
@@ -5724,25 +5836,25 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -5757,100 +5869,100 @@
         <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS18" s="1">
         <v>3</v>
@@ -5868,70 +5980,70 @@
         <v>1</v>
       </c>
       <c r="AX18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB18" s="1">
         <v>3</v>
       </c>
       <c r="BC18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT18" s="1">
         <v>1</v>
@@ -5973,19 +6085,19 @@
         <v>1</v>
       </c>
       <c r="CG18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL18" s="1">
         <v>3</v>
@@ -6000,25 +6112,25 @@
         <v>1</v>
       </c>
       <c r="CP18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW18" s="1">
         <v>3</v>
@@ -6029,25 +6141,25 @@
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -6062,100 +6174,100 @@
         <v>3</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS19" s="1">
         <v>3</v>
@@ -6173,70 +6285,70 @@
         <v>1</v>
       </c>
       <c r="AX19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB19" s="1">
         <v>3</v>
       </c>
       <c r="BC19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT19" s="1">
         <v>1</v>
@@ -6278,19 +6390,19 @@
         <v>1</v>
       </c>
       <c r="CG19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL19" s="1">
         <v>3</v>
@@ -6305,25 +6417,25 @@
         <v>1</v>
       </c>
       <c r="CP19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW19" s="1">
         <v>3</v>
@@ -6334,25 +6446,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -6367,100 +6479,100 @@
         <v>3</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS20" s="1">
         <v>3</v>
@@ -6478,70 +6590,70 @@
         <v>1</v>
       </c>
       <c r="AX20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB20" s="1">
         <v>3</v>
       </c>
       <c r="BC20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT20" s="1">
         <v>1</v>
@@ -6583,19 +6695,19 @@
         <v>1</v>
       </c>
       <c r="CG20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL20" s="1">
         <v>3</v>
@@ -6610,25 +6722,25 @@
         <v>1</v>
       </c>
       <c r="CP20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW20" s="1">
         <v>3</v>
@@ -6639,25 +6751,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -6672,100 +6784,100 @@
         <v>3</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS21" s="1">
         <v>3</v>
@@ -6783,70 +6895,70 @@
         <v>1</v>
       </c>
       <c r="AX21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB21" s="1">
         <v>3</v>
       </c>
       <c r="BC21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT21" s="1">
         <v>1</v>
@@ -6888,19 +7000,19 @@
         <v>1</v>
       </c>
       <c r="CG21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL21" s="1">
         <v>3</v>
@@ -6915,25 +7027,25 @@
         <v>1</v>
       </c>
       <c r="CP21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CS21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW21" s="1">
         <v>3</v>
@@ -6944,13 +7056,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -6977,100 +7089,100 @@
         <v>3</v>
       </c>
       <c r="M22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS22" s="1">
         <v>3</v>
@@ -7088,70 +7200,70 @@
         <v>1</v>
       </c>
       <c r="AX22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB22" s="1">
         <v>3</v>
       </c>
       <c r="BC22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT22" s="1">
         <v>1</v>
@@ -7193,19 +7305,19 @@
         <v>1</v>
       </c>
       <c r="CG22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CI22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CJ22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CK22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CL22" s="1">
         <v>3</v>
@@ -7232,13 +7344,13 @@
         <v>1</v>
       </c>
       <c r="CT22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW22" s="1">
         <v>3</v>
@@ -7249,13 +7361,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -7294,88 +7406,88 @@
         <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS23" s="1">
         <v>3</v>
@@ -7393,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="1">
         <v>1</v>
@@ -7405,58 +7517,58 @@
         <v>1</v>
       </c>
       <c r="BB23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT23" s="1">
         <v>1</v>
@@ -7498,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="CG23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH23" s="1">
         <v>1</v>
@@ -7537,13 +7649,13 @@
         <v>1</v>
       </c>
       <c r="CT23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW23" s="1">
         <v>3</v>
@@ -7563,16 +7675,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -7587,16 +7699,16 @@
         <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
         <v>3</v>
@@ -7704,13 +7816,13 @@
         <v>3</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="1">
         <v>3</v>
@@ -7791,10 +7903,10 @@
         <v>3</v>
       </c>
       <c r="CC24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE24" s="1">
         <v>3</v>
@@ -7806,16 +7918,16 @@
         <v>3</v>
       </c>
       <c r="CH24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CI24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CJ24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CK24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL24" s="1">
         <v>3</v>
@@ -7830,16 +7942,16 @@
         <v>1</v>
       </c>
       <c r="CP24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CQ24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CR24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CS24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT24" s="1">
         <v>3</v>
@@ -8777,10 +8889,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -8798,10 +8910,10 @@
         <v>3</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="1">
         <v>3</v>
@@ -8810,10 +8922,10 @@
         <v>3</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P28" s="1">
         <v>3</v>
@@ -8831,10 +8943,10 @@
         <v>3</v>
       </c>
       <c r="U28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28" s="1">
         <v>3</v>
@@ -8843,10 +8955,10 @@
         <v>3</v>
       </c>
       <c r="Y28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA28" s="1">
         <v>3</v>
@@ -8864,10 +8976,10 @@
         <v>3</v>
       </c>
       <c r="AF28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH28" s="1">
         <v>3</v>
@@ -8876,10 +8988,10 @@
         <v>3</v>
       </c>
       <c r="AJ28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="1">
         <v>3</v>
@@ -8897,10 +9009,10 @@
         <v>3</v>
       </c>
       <c r="AQ28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS28" s="1">
         <v>3</v>
@@ -8909,10 +9021,10 @@
         <v>3</v>
       </c>
       <c r="AU28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW28" s="1">
         <v>3</v>
@@ -8930,10 +9042,10 @@
         <v>3</v>
       </c>
       <c r="BB28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD28" s="1">
         <v>3</v>
@@ -8942,10 +9054,10 @@
         <v>3</v>
       </c>
       <c r="BF28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH28" s="1">
         <v>3</v>
@@ -8963,10 +9075,10 @@
         <v>3</v>
       </c>
       <c r="BM28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO28" s="1">
         <v>3</v>
@@ -8975,10 +9087,10 @@
         <v>3</v>
       </c>
       <c r="BQ28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS28" s="1">
         <v>3</v>
@@ -8996,10 +9108,10 @@
         <v>3</v>
       </c>
       <c r="BX28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ28" s="1">
         <v>3</v>
@@ -9008,10 +9120,10 @@
         <v>3</v>
       </c>
       <c r="CB28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CC28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD28" s="1">
         <v>3</v>
@@ -9029,10 +9141,10 @@
         <v>3</v>
       </c>
       <c r="CI28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK28" s="1">
         <v>3</v>
@@ -9041,10 +9153,10 @@
         <v>3</v>
       </c>
       <c r="CM28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CN28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO28" s="1">
         <v>3</v>
@@ -9062,10 +9174,10 @@
         <v>3</v>
       </c>
       <c r="CT28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV28" s="1">
         <v>3</v>
@@ -9082,31 +9194,31 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <v>3</v>
@@ -9115,64 +9227,64 @@
         <v>3</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
         <v>3</v>
@@ -9181,64 +9293,64 @@
         <v>3</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="1">
         <v>3</v>
@@ -9247,31 +9359,31 @@
         <v>3</v>
       </c>
       <c r="BF29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO29" s="1">
         <v>3</v>
@@ -9280,31 +9392,31 @@
         <v>3</v>
       </c>
       <c r="BQ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ29" s="1">
         <v>3</v>
@@ -9313,64 +9425,64 @@
         <v>3</v>
       </c>
       <c r="CB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV29" s="1">
         <v>3</v>
@@ -9387,31 +9499,31 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>3</v>
@@ -9420,64 +9532,64 @@
         <v>3</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1">
         <v>3</v>
@@ -9486,64 +9598,64 @@
         <v>3</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="1">
         <v>3</v>
@@ -9552,31 +9664,31 @@
         <v>3</v>
       </c>
       <c r="BF30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="1">
         <v>3</v>
@@ -9585,31 +9697,31 @@
         <v>3</v>
       </c>
       <c r="BQ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ30" s="1">
         <v>3</v>
@@ -9618,64 +9730,64 @@
         <v>3</v>
       </c>
       <c r="CB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV30" s="1">
         <v>3</v>
@@ -9692,31 +9804,31 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>3</v>
@@ -9725,64 +9837,64 @@
         <v>3</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
         <v>3</v>
@@ -9791,64 +9903,64 @@
         <v>3</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="1">
         <v>3</v>
@@ -9857,31 +9969,31 @@
         <v>3</v>
       </c>
       <c r="BF31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO31" s="1">
         <v>3</v>
@@ -9890,31 +10002,31 @@
         <v>3</v>
       </c>
       <c r="BQ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ31" s="1">
         <v>3</v>
@@ -9923,64 +10035,64 @@
         <v>3</v>
       </c>
       <c r="CB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV31" s="1">
         <v>3</v>
@@ -9997,31 +10109,31 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
         <v>3</v>
@@ -10030,64 +10142,64 @@
         <v>3</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
         <v>3</v>
@@ -10096,64 +10208,64 @@
         <v>3</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="1">
         <v>3</v>
@@ -10162,31 +10274,31 @@
         <v>3</v>
       </c>
       <c r="BF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO32" s="1">
         <v>3</v>
@@ -10195,31 +10307,31 @@
         <v>3</v>
       </c>
       <c r="BQ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ32" s="1">
         <v>3</v>
@@ -10228,64 +10340,64 @@
         <v>3</v>
       </c>
       <c r="CB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV32" s="1">
         <v>3</v>
@@ -10302,31 +10414,31 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
         <v>3</v>
@@ -10335,64 +10447,64 @@
         <v>3</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
         <v>3</v>
@@ -10401,64 +10513,64 @@
         <v>3</v>
       </c>
       <c r="AJ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="1">
         <v>3</v>
@@ -10467,31 +10579,31 @@
         <v>3</v>
       </c>
       <c r="BF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO33" s="1">
         <v>3</v>
@@ -10500,31 +10612,31 @@
         <v>3</v>
       </c>
       <c r="BQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ33" s="1">
         <v>3</v>
@@ -10533,64 +10645,64 @@
         <v>3</v>
       </c>
       <c r="CB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV33" s="1">
         <v>3</v>
@@ -10607,31 +10719,31 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -10640,64 +10752,64 @@
         <v>3</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>3</v>
@@ -10706,64 +10818,64 @@
         <v>3</v>
       </c>
       <c r="AJ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="1">
         <v>3</v>
@@ -10772,31 +10884,31 @@
         <v>3</v>
       </c>
       <c r="BF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34" s="1">
         <v>3</v>
@@ -10805,31 +10917,31 @@
         <v>3</v>
       </c>
       <c r="BQ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ34" s="1">
         <v>3</v>
@@ -10838,64 +10950,64 @@
         <v>3</v>
       </c>
       <c r="CB34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV34" s="1">
         <v>3</v>
@@ -10912,31 +11024,31 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
         <v>3</v>
@@ -10945,64 +11057,64 @@
         <v>3</v>
       </c>
       <c r="N35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="1">
         <v>3</v>
@@ -11011,64 +11123,64 @@
         <v>3</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="1">
         <v>3</v>
@@ -11077,31 +11189,31 @@
         <v>3</v>
       </c>
       <c r="BF35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="1">
         <v>3</v>
@@ -11110,31 +11222,31 @@
         <v>3</v>
       </c>
       <c r="BQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ35" s="1">
         <v>3</v>
@@ -11143,64 +11255,64 @@
         <v>3</v>
       </c>
       <c r="CB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV35" s="1">
         <v>3</v>
@@ -11516,86 +11628,165 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 A1:AD20 B21:AS24 B25:K28 A21:A35 B28:L35 AE1:BD1 BE28:BO35 A36:CV36 AS14:AS23 AE10:CV12 L25:CV27 AT13:BA25 CO13:CV24">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+  <conditionalFormatting sqref="B26:K28 CO24:CV24 CO13:CO23 C28:CV28 L25:CV27 BA19:BA22 A14:A35 A13:D13 B14:D25 I25:K25 E13:H25 AE10:CV12 AW29:AW36 CG29:CG36 AX35:BC35 BC19:BC22 AY13:BC18 AY23:BC24 AT1:AX10 AC29:AC36 I29:J36 B28:L35 AD29:AH35 C9:CV9 AE1:BD1 BE28:BO36 A36:CV36 AM29:AN36 I13:AX24 A1:AD12 X2:AH9 AU2:BC8 C29:R35 BF29:CF35 CH29:CU35">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+  <conditionalFormatting sqref="CW13:XFD23 BA19:BA22 I25:XFD25 A13:H25 AY24:XFD24 BB15:BC22 AY13:BC18 AY23:BC24 BS13:CO23 AY13:BR13 BD14:BR23 I13:AX24 A1:XFD12 A26:XFD1048576">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:BD9">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+  <conditionalFormatting sqref="AI2:BD9">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+  <conditionalFormatting sqref="W29:Z35 M28:W35">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:W35">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+  <conditionalFormatting sqref="AC29:AC36 X28:AH35">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X28:AH35">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+  <conditionalFormatting sqref="AM29:AN36 AI28:AS35 AP29:BC35">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI28:AS35">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+  <conditionalFormatting sqref="AT2:BD9 AT9:AX10">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+  <conditionalFormatting sqref="AT2:BD9 AT9:AX10">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT28:BD35">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+  <conditionalFormatting sqref="AW29:AW36 AT28:BD35">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA2:CK9 BE1:BZ9 CA1:CV1">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP28:BZ35">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA28:CK35">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="CG29:CG36 CA28:CK35 CI29:CU35">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28:CV35">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="CL28:CV35 CV30:CV36 CH29:CU35">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP13:CV23">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP13:CV23">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP13:CV23">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY19:BB22">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY19:BB22">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY19:BB22">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE28:BO36">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP28:BZ36">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AR8">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF2:BN8">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ2:BY8">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CB2:CJ8">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM2:CU8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:AG35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fieldData/school_3F.xlsx
+++ b/fieldData/school_3F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B05279-306E-46E3-B71C-C66955E613CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC46A899-B1C5-451E-9B21-7A4087B9702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -637,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D650B-EB6E-484D-95A2-87377CCCE523}">
   <dimension ref="A1:CW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CN25" sqref="CN25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4823,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="BS14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT14" s="1">
         <v>1</v>
@@ -5071,10 +5078,10 @@
         <v>3</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB15" s="1">
         <v>3</v>
@@ -5128,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="BS15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT15" s="1">
         <v>1</v>
@@ -5433,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="BS16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT16" s="1">
         <v>1</v>
@@ -5738,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="BS17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT17" s="1">
         <v>1</v>
@@ -6043,7 +6050,7 @@
         <v>3</v>
       </c>
       <c r="BS18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT18" s="1">
         <v>1</v>
@@ -6348,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="BS19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT19" s="1">
         <v>1</v>
@@ -6653,7 +6660,7 @@
         <v>3</v>
       </c>
       <c r="BS20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT20" s="1">
         <v>1</v>
@@ -6958,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="BS21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT21" s="1">
         <v>1</v>
@@ -7095,10 +7102,10 @@
         <v>4</v>
       </c>
       <c r="O22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
@@ -7263,7 +7270,7 @@
         <v>3</v>
       </c>
       <c r="BS22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT22" s="1">
         <v>1</v>
@@ -7308,10 +7315,10 @@
         <v>3</v>
       </c>
       <c r="CH22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ22" s="1">
         <v>4</v>
@@ -7568,7 +7575,7 @@
         <v>3</v>
       </c>
       <c r="BS23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT23" s="1">
         <v>1</v>
@@ -11629,19 +11636,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B26:K28 CO24:CV24 CO13:CO23 C28:CV28 L25:CV27 BA19:BA22 A14:A35 A13:D13 B14:D25 I25:K25 E13:H25 AE10:CV12 AW29:AW36 CG29:CG36 AX35:BC35 BC19:BC22 AY13:BC18 AY23:BC24 AT1:AX10 AC29:AC36 I29:J36 B28:L35 AD29:AH35 C9:CV9 AE1:BD1 BE28:BO36 A36:CV36 AM29:AN36 I13:AX24 A1:AD12 X2:AH9 AU2:BC8 C29:R35 BF29:CF35 CH29:CU35">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW13:XFD23 BA19:BA22 I25:XFD25 A13:H25 AY24:XFD24 BB15:BC22 AY13:BC18 AY23:BC24 BS13:CO23 AY13:BR13 BD14:BR23 I13:AX24 A1:XFD12 A26:XFD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+  <conditionalFormatting sqref="CW13:XFD23 BA19:BA22 I25:XFD25 A13:H25 AY24:XFD24 BB15:BC22 AY13:BC18 AY23:BC24 AY13:BR13 BD14:BR23 I13:AX24 A1:XFD12 A26:XFD1048576 BS13:CO23">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:BD9">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:BD9">
@@ -11649,22 +11661,22 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:BD9">
+  <conditionalFormatting sqref="W29:Z35 M28:W35">
     <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Z35 M28:W35">
+  <conditionalFormatting sqref="AC29:AC36 X28:AH35">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC29:AC36 X28:AH35">
+  <conditionalFormatting sqref="AM29:AN36 AI28:AS35 AP29:BC35">
     <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM29:AN36 AI28:AS35 AP29:BC35">
+  <conditionalFormatting sqref="AT2:BD9 AT9:AX10">
     <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -11674,17 +11686,17 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:BD9 AT9:AX10">
+  <conditionalFormatting sqref="AW29:AW36 AT28:BD35">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW29:AW36 AT28:BD35">
+  <conditionalFormatting sqref="CA2:CK9 BE1:BZ9 CA1:CV1">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA2:CK9 BE1:BZ9 CA1:CV1">
+  <conditionalFormatting sqref="CL2:CV9">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -11694,100 +11706,100 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL2:CV9">
+  <conditionalFormatting sqref="BP28:BZ35">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28:BZ35">
+  <conditionalFormatting sqref="CG29:CG36 CA28:CK35 CI29:CU35">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29:CG36 CA28:CK35 CI29:CU35">
+  <conditionalFormatting sqref="CL28:CV35 CV30:CV36 CH29:CU35">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28:CV35 CV30:CV36 CH29:CU35">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+  <conditionalFormatting sqref="CP13:CV23">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP13:CV23">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP13:CV23">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CP13:CV23">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:BB22">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:BB22">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:BB22">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BO36">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP28:BZ36">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28:BZ36">
+  <conditionalFormatting sqref="AJ2:AR8">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AR8">
+  <conditionalFormatting sqref="BF2:BN8">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BN8">
+  <conditionalFormatting sqref="BQ2:BY8">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BY8">
+  <conditionalFormatting sqref="CB2:CJ8">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB2:CJ8">
+  <conditionalFormatting sqref="CM2:CU8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM2:CU8">
+  <conditionalFormatting sqref="S29:AG35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29:AG35">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
